--- a/TestData/UserData.xlsx
+++ b/TestData/UserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15075" windowHeight="6180" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="8160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Selenium</t>
   </si>
@@ -113,13 +113,22 @@
     <t>Residential</t>
   </si>
   <si>
-    <t>Marketing Campaigns</t>
-  </si>
-  <si>
     <t>Solar Sales Proposal</t>
   </si>
   <si>
-    <t>Lead</t>
+    <t>Referral</t>
+  </si>
+  <si>
+    <t>Proposal</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost </t>
   </si>
 </sst>
 </file>
@@ -549,10 +558,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +570,7 @@
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -592,8 +601,14 @@
       <c r="J1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -616,13 +631,19 @@
         <v>28</v>
       </c>
       <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2">
+        <v>1000000</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/UserData.xlsx
+++ b/TestData/UserData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="8160" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="8160" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="2" r:id="rId1"/>
     <sheet name="Tools" sheetId="1" r:id="rId2"/>
     <sheet name="Customers" sheetId="5" r:id="rId3"/>
-    <sheet name="credentials" sheetId="3" r:id="rId4"/>
-    <sheet name="Users" sheetId="4" r:id="rId5"/>
+    <sheet name="Task" sheetId="6" r:id="rId4"/>
+    <sheet name="credentials" sheetId="3" r:id="rId5"/>
+    <sheet name="Users" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M18"/>
+  <oleSize ref="A1:W25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Selenium</t>
   </si>
@@ -129,6 +130,33 @@
   </si>
   <si>
     <t xml:space="preserve">Cost </t>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Due date</t>
+  </si>
+  <si>
+    <t>Lead name</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Mukesh</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -202,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +243,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -560,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -657,6 +691,71 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -724,12 +823,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/UserData.xlsx
+++ b/TestData/UserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="8160" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17670" windowHeight="5250" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="2" r:id="rId1"/>
@@ -132,31 +132,31 @@
     <t xml:space="preserve">Cost </t>
   </si>
   <si>
-    <t>Task Name</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
     <t>Due date</t>
   </si>
   <si>
-    <t>Lead name</t>
-  </si>
-  <si>
     <t>Task Description</t>
   </si>
   <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Mukesh</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Annual generation</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Lead Name</t>
   </si>
 </sst>
 </file>
@@ -230,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,6 +248,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -695,32 +698,29 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -731,19 +731,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6">
-        <v>20</v>
+      <c r="E2" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/UserData.xlsx
+++ b/TestData/UserData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17670" windowHeight="5250" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17670" windowHeight="7440" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Languages" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Users" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:W25"/>
+  <oleSize ref="A1:P22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -120,9 +120,6 @@
     <t>Referral</t>
   </si>
   <si>
-    <t>Proposal</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Lead Name</t>
+  </si>
+  <si>
+    <t>Negotiation</t>
   </si>
 </sst>
 </file>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,10 +639,10 @@
         <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -674,10 +674,10 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2">
         <v>1000000</v>
@@ -697,30 +697,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -731,16 +731,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
